--- a/data/trans_camb/P23_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,47</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>-3,46</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,71; -4,52</t>
+          <t>-11,45; 0,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 1,39</t>
+          <t>-8,19; 4,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -4,92</t>
+          <t>-8,09; 0,88</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-42,84%</t>
+          <t>-12,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-36,19%</t>
+          <t>-8,87%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -15,38</t>
+          <t>-25,63; 1,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 7,55</t>
+          <t>-20,75; 13,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,79; -18,69</t>
+          <t>-19,3; 2,71</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,26</t>
+          <t>-0,43</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -3,84</t>
+          <t>-8,46; 2,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -4,91</t>
+          <t>-2,93; 8,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -6,88</t>
+          <t>-4,46; 3,81</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,38%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-32,53%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,54%</t>
+          <t>-0,93%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,92; -9,71</t>
+          <t>-14,75; 4,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,08; -14,8</t>
+          <t>-7,25; 24,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,83; -19,56</t>
+          <t>-9,28; 8,74</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,72</t>
+          <t>-3,81</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,09; -5,01</t>
+          <t>-11,89; -0,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,45; -3,8</t>
+          <t>-7,41; 3,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -6,12</t>
+          <t>-7,54; -0,26</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,82%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-27,59%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-28,39%</t>
+          <t>-8,45%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,64; -14,57</t>
+          <t>-21,01; -0,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,77; -13,69</t>
+          <t>-18,36; 9,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,54; -19,26</t>
+          <t>-16,41; -0,65</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-16,41</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,69</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-14,58</t>
+          <t>5,57</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,75; -10,46</t>
+          <t>-6,53; 6,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,16; -7,45</t>
+          <t>3,31; 16,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -11,0</t>
+          <t>1,18; 10,06</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-39,4%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-37,93%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>15,19%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,68; -26,85</t>
+          <t>-13,61; 14,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,85; -24,97</t>
+          <t>10,35; 63,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,71; -30,8</t>
+          <t>2,59; 28,78</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>3,35</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 6,65</t>
+          <t>-3,64; 10,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 2,71</t>
+          <t>-0,96; 8,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,92</t>
+          <t>-1,04; 7,29</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,51%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 27,13</t>
+          <t>-10,14; 34,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 15,3</t>
+          <t>-7,04; 89,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 12,86</t>
+          <t>-4,77; 34,52</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 4,49</t>
+          <t>-5,59; 3,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,64</t>
+          <t>-0,24; 3,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,72</t>
+          <t>-1,7; 2,58</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 45,61</t>
+          <t>-32,77; 29,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 86,52</t>
+          <t>-17,9; 321,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 42,01</t>
+          <t>-20,79; 40,75</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,85</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -6,51</t>
+          <t>-5,32; -0,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -5,42</t>
+          <t>-0,29; 3,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -6,77</t>
+          <t>-2,11; 1,33</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-27,52%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-30,54%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-29,28%</t>
+          <t>-1,18%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-34,21; -20,81</t>
+          <t>-12,16; -1,2</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-38,78; -23,56</t>
+          <t>-1,2; 15,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -24,61</t>
+          <t>-6,15; 4,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 0,67</t>
+          <t>-11,54; 0,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 4,61</t>
+          <t>-7,42; 4,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 0,88</t>
+          <t>-8,07; 1,06</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 1,63</t>
+          <t>-25,94; 0,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 13,87</t>
+          <t>-19,34; 13,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 2,71</t>
+          <t>-19,84; 3,18</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 2,43</t>
+          <t>-8,57; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,37</t>
+          <t>-2,02; 9,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 3,81</t>
+          <t>-4,26; 3,79</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 4,68</t>
+          <t>-15,0; 4,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 24,46</t>
+          <t>-5,22; 27,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 8,74</t>
+          <t>-8,71; 8,44</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -0,26</t>
+          <t>-10,99; 0,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 3,17</t>
+          <t>-7,39; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -0,26</t>
+          <t>-7,53; 0,26</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -0,53</t>
+          <t>-19,7; 1,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 9,26</t>
+          <t>-18,45; 10,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -0,65</t>
+          <t>-16,05; 0,62</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 6,06</t>
+          <t>-6,38; 7,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 16,08</t>
+          <t>4,85; 16,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,06</t>
+          <t>1,5; 9,81</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 14,0</t>
+          <t>-12,98; 17,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,35; 63,72</t>
+          <t>15,95; 67,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,59; 28,78</t>
+          <t>3,79; 28,37</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 10,08</t>
+          <t>-3,43; 9,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,09</t>
+          <t>-1,23; 8,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,29</t>
+          <t>-0,87; 7,99</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 34,92</t>
+          <t>-9,9; 30,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 89,78</t>
+          <t>-8,99; 84,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 34,52</t>
+          <t>-3,56; 40,27</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 3,79</t>
+          <t>-5,68; 3,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,28</t>
+          <t>-0,25; 3,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,58</t>
+          <t>-1,72; 2,81</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 29,78</t>
+          <t>-32,6; 23,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 321,22</t>
+          <t>-21,25; 315,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 40,75</t>
+          <t>-21,14; 42,26</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -0,51</t>
+          <t>-5,19; -0,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,92</t>
+          <t>-0,1; 4,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,33</t>
+          <t>-1,95; 1,24</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -1,2</t>
+          <t>-11,87; -1,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 15,73</t>
+          <t>-0,35; 17,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 4,06</t>
+          <t>-5,69; 3,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 0,22</t>
+          <t>-12,26; 0,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 4,53</t>
+          <t>-7,23; 4,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1,06</t>
+          <t>-7,9; 1,3</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 0,5</t>
+          <t>-27,23; 1,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 13,83</t>
+          <t>-19,23; 14,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 3,18</t>
+          <t>-19,1; 3,7</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,28</t>
+          <t>-8,82; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 9,66</t>
+          <t>-2,2; 8,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,79</t>
+          <t>-4,67; 3,73</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 4,48</t>
+          <t>-15,56; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 27,55</t>
+          <t>-5,42; 24,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 8,44</t>
+          <t>-9,48; 8,32</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 0,7</t>
+          <t>-11,21; 0,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 3,67</t>
+          <t>-7,61; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,26</t>
+          <t>-7,91; 0,02</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 1,35</t>
+          <t>-20,07; 0,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 10,53</t>
+          <t>-19,03; 7,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 0,62</t>
+          <t>-16,8; 0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 7,02</t>
+          <t>-5,76; 6,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,69</t>
+          <t>5,19; 16,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,81</t>
+          <t>1,12; 9,82</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 17,16</t>
+          <t>-11,88; 16,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,95; 67,29</t>
+          <t>17,21; 66,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,79; 28,37</t>
+          <t>2,87; 28,44</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 9,35</t>
+          <t>-4,38; 9,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,18</t>
+          <t>-1,23; 8,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,99</t>
+          <t>-1,43; 7,67</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 30,96</t>
+          <t>-11,88; 31,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 84,18</t>
+          <t>-9,15; 91,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 40,27</t>
+          <t>-6,0; 38,07</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,15</t>
+          <t>-5,34; 3,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,27</t>
+          <t>-0,2; 3,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,81</t>
+          <t>-1,64; 2,55</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 23,81</t>
+          <t>-30,98; 27,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 315,7</t>
+          <t>-14,82; 315,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 42,26</t>
+          <t>-19,36; 40,37</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -0,47</t>
+          <t>-5,41; -0,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,31</t>
+          <t>-0,55; 3,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,24</t>
+          <t>-2,02; 1,27</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -1,25</t>
+          <t>-12,23; -1,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 17,6</t>
+          <t>-1,97; 16,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,69</t>
+          <t>-5,87; 3,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +513,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +530,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +554,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -542,11 +584,14 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-7,1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-1,61</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-9,24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-3,46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-8,13</t>
         </is>
       </c>
     </row>
@@ -584,12 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-13,16; -0,76</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-7,23; 4,89</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-15,15; -3,35</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>-7,9; 1,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-12,43; -3,67</t>
         </is>
       </c>
     </row>
@@ -607,12 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-16,98%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-4,45%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-25,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-8,87%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-20,83%</t>
         </is>
       </c>
     </row>
@@ -630,19 +720,34 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-29,44; -1,51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-19,23; 14,78</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-39,51; -9,91</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-19,1; 3,7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-30,45; -9,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -657,12 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-8,58</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,33</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,43</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-4,54</t>
         </is>
       </c>
     </row>
@@ -680,12 +800,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-13,91; -2,55</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-2,2; 8,56</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 6,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-4,67; 3,73</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; -0,4</t>
         </is>
       </c>
     </row>
@@ -703,12 +838,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-15,81%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>8,91%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-0,93%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-9,76%</t>
         </is>
       </c>
     </row>
@@ -726,19 +876,34 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-24,7; -5,15</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-5,42; 24,92</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 19,86</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-9,48; 8,32</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; -1,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -753,12 +918,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-13,42</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-2,36</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-3,81</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-8,35</t>
         </is>
       </c>
     </row>
@@ -776,12 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-18,75; -7,43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-7,61; 2,72</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 0,94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-7,91; 0,02</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-12,75; -4,68</t>
         </is>
       </c>
     </row>
@@ -799,12 +994,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>-25,14%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-6,31%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-10,54%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-18,54%</t>
         </is>
       </c>
     </row>
@@ -822,19 +1032,34 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-33,2; -14,74</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-19,03; 7,92</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-22,29; 2,75</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-16,8; 0,0</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-26,96; -11,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -849,12 +1074,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>10,91</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>5,57</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -872,12 +1112,27 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>-8,55; 4,13</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>5,19; 16,43</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 13,33</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>1,12; 9,82</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 6,74</t>
         </is>
       </c>
     </row>
@@ -895,12 +1150,27 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>-4,9%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>38,81%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>15,19%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -918,19 +1188,34 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>-17,34; 9,64</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>17,21; 66,33</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 53,85</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>2,87; 28,44</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 19,78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -945,12 +1230,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>3,54</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11,41</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>3,35</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -968,12 +1268,27 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
+          <t>-9,37; 3,55</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>-1,23; 8,79</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 16,14</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>-1,43; 7,67</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 8,88</t>
         </is>
       </c>
     </row>
@@ -991,12 +1306,27 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>-7,68%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>30,51%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>98,28%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>15,1%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
         </is>
       </c>
     </row>
@@ -1014,19 +1344,34 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
+          <t>-24,96; 12,01</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>-9,15; 91,92</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>43,04; 167,13</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>-6,0; 38,07</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 43,93</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1036,17 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 3,6</t>
+          <t>-7,55; 5,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,11</t>
+          <t>-7,23; 4,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,55</t>
+          <t>0,84; 6,62</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 9,43</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 4,64</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 7,05</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>179,56%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>313,96%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 27,49</t>
+          <t>-36,35; 34,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 315,41</t>
+          <t>-34,93; 31,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 40,37</t>
+          <t>18,04; 660,89</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>98,45; 1066,5</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>-16,34; 59,59</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 86,14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1132,17 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,63</t>
+          <t>-5,36; 5,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,97</t>
+          <t>-6,03; 4,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,27</t>
+          <t>-2,25; 1,47</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 2,99</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2,32</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 2,33</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>-10,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-25,39%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>44,74%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-3,05%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-0,72%</t>
         </is>
       </c>
     </row>
@@ -1201,31 +1651,206 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-41,57; 84,04</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-43,95; 63,07</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-64,61; 866,24</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 62,52</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-39,02; 68,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-7,22</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; -0,63</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; -4,95</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 3,97</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 2,78</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 1,27</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; -1,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-6,47%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-17,08%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-12,23; -1,45</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-22,01; -11,82</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-1,97; 16,35</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 11,17</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-5,87; 3,89</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; -4,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>

--- a/data/trans_camb/P23_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Edad-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 0,66</t>
+          <t>-11,42; 0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; -0,76</t>
+          <t>-13,13; -1,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,89</t>
+          <t>-7,39; 4,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -3,35</t>
+          <t>-15,61; -3,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 1,3</t>
+          <t>-7,92; 1,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -3,67</t>
+          <t>-12,54; -3,45</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 1,55</t>
+          <t>-25,43; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,44; -1,51</t>
+          <t>-29,72; -3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 14,78</t>
+          <t>-18,95; 13,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,51; -9,91</t>
+          <t>-39,67; -9,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 3,7</t>
+          <t>-19,2; 3,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -9,95</t>
+          <t>-30,93; -9,44</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 2,03</t>
+          <t>-9,1; 1,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -2,55</t>
+          <t>-14,01; -2,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 8,56</t>
+          <t>-2,11; 8,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 6,91</t>
+          <t>-5,0; 6,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 3,73</t>
+          <t>-4,3; 3,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -0,4</t>
+          <t>-8,58; -0,54</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 3,61</t>
+          <t>-16,18; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -5,15</t>
+          <t>-24,64; -5,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 24,92</t>
+          <t>-5,33; 25,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 19,86</t>
+          <t>-12,45; 18,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 8,32</t>
+          <t>-8,74; 8,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -1,03</t>
+          <t>-17,73; -1,26</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 0,3</t>
+          <t>-10,86; 0,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,75; -7,43</t>
+          <t>-18,93; -7,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 2,72</t>
+          <t>-7,14; 2,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 0,94</t>
+          <t>-8,92; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,02</t>
+          <t>-7,33; -0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -4,68</t>
+          <t>-11,87; -4,47</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 0,61</t>
+          <t>-19,62; 0,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,2; -14,74</t>
+          <t>-34,04; -14,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 7,92</t>
+          <t>-18,07; 7,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 2,75</t>
+          <t>-22,24; 4,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 0,0</t>
+          <t>-15,89; -0,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,96; -11,29</t>
+          <t>-25,49; -10,51</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 6,85</t>
+          <t>-5,54; 7,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 4,13</t>
+          <t>-7,93; 3,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,19; 16,43</t>
+          <t>5,4; 17,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 13,33</t>
+          <t>2,15; 13,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,82</t>
+          <t>1,36; 9,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 6,74</t>
+          <t>-1,51; 6,95</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 16,51</t>
+          <t>-11,32; 17,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 9,64</t>
+          <t>-16,43; 9,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,21; 66,33</t>
+          <t>17,15; 67,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,08; 53,85</t>
+          <t>6,89; 52,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 28,44</t>
+          <t>3,42; 28,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 19,78</t>
+          <t>-3,91; 19,94</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 9,71</t>
+          <t>-3,6; 10,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 3,55</t>
+          <t>-8,99; 4,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,79</t>
+          <t>-1,02; 8,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,04; 16,14</t>
+          <t>6,1; 16,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,67</t>
+          <t>-1,09; 7,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 8,88</t>
+          <t>0,37; 8,93</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 31,5</t>
+          <t>-10,08; 33,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 12,01</t>
+          <t>-24,48; 14,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 91,92</t>
+          <t>-7,5; 89,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>43,04; 167,13</t>
+          <t>43,28; 174,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 38,07</t>
+          <t>-3,92; 41,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,54; 43,93</t>
+          <t>1,99; 44,97</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 5,17</t>
+          <t>-7,73; 4,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,92</t>
+          <t>-6,64; 5,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,62</t>
+          <t>0,82; 6,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,43</t>
+          <t>3,18; 9,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,64</t>
+          <t>-2,03; 4,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,05</t>
+          <t>-0,21; 6,31</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 34,25</t>
+          <t>-39,09; 32,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 31,38</t>
+          <t>-31,92; 35,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,04; 660,89</t>
+          <t>11,32; 731,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>98,45; 1066,5</t>
+          <t>87,98; 1043,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 59,59</t>
+          <t>-19,12; 63,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 86,14</t>
+          <t>-2,1; 78,58</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 5,8</t>
+          <t>-6,03; 6,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 4,19</t>
+          <t>-6,59; 3,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,47</t>
+          <t>-2,1; 1,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,99</t>
+          <t>-1,51; 2,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,32</t>
+          <t>-2,7; 2,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,33</t>
+          <t>-2,44; 2,41</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 84,04</t>
+          <t>-44,11; 77,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 63,07</t>
+          <t>-46,98; 52,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 578,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 866,24</t>
+          <t>-75,79; 507,72</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 62,52</t>
+          <t>-43,68; 73,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 68,26</t>
+          <t>-38,8; 68,24</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,63</t>
+          <t>-4,88; -0,21</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -4,95</t>
+          <t>-9,55; -4,83</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,97</t>
+          <t>-0,25; 4,18</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,78</t>
+          <t>-1,5; 2,69</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,27</t>
+          <t>-2,13; 1,26</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -1,66</t>
+          <t>-5,1; -1,78</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -1,45</t>
+          <t>-11,23; -0,51</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -11,82</t>
+          <t>-21,85; -11,62</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 16,35</t>
+          <t>-1,1; 17,14</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 11,17</t>
+          <t>-5,71; 10,86</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 3,89</t>
+          <t>-6,15; 3,84</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -4,96</t>
+          <t>-14,66; -5,37</t>
         </is>
       </c>
     </row>
